--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5596350C-97E3-4725-9617-3750C0853597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFAEC0-11D7-478C-9070-19C8AC527274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>costumeId|String</t>
   </si>
@@ -69,55 +69,88 @@
     <t>Costu01</t>
   </si>
   <si>
-    <t>JellyFishGirl</t>
-  </si>
-  <si>
-    <t>Portrait_JellyFishGirl</t>
-  </si>
-  <si>
     <t>Costu02</t>
   </si>
   <si>
     <t>EarthMage</t>
   </si>
   <si>
-    <t>Portrait_EarthMage</t>
-  </si>
-  <si>
     <t>Cash_sCostu02</t>
   </si>
   <si>
     <t>Costu03</t>
   </si>
   <si>
-    <t>DynaMob</t>
-  </si>
-  <si>
-    <t>Portrait_DynaMob</t>
-  </si>
-  <si>
     <t>Cash_sCostu03</t>
   </si>
   <si>
     <t>Costu04</t>
   </si>
   <si>
-    <t>SciFiWarrior</t>
-  </si>
-  <si>
-    <t>Portrait_SciFiWarrior</t>
-  </si>
-  <si>
     <t>Cash_sCostu04</t>
   </si>
   <si>
     <t>Costu05</t>
   </si>
   <si>
-    <t>ChaosElemental</t>
-  </si>
-  <si>
-    <t>Portrait_ChaosElemental</t>
+    <t>Portrait_P03_Tenebro_DB_A3</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_A1</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_C1</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_C2</t>
+  </si>
+  <si>
+    <t>Portrait_P06_Mei</t>
+  </si>
+  <si>
+    <t>Cash_sCostu05</t>
+  </si>
+  <si>
+    <t>Costu06</t>
+  </si>
+  <si>
+    <t>Portrait_P06_Pai</t>
+  </si>
+  <si>
+    <t>Costu07</t>
+  </si>
+  <si>
+    <t>Portrait_P08_Federica_DB_A</t>
+  </si>
+  <si>
+    <t>Cash_sCostu07</t>
+  </si>
+  <si>
+    <t>Costu08</t>
+  </si>
+  <si>
+    <t>Portrait_P08_Federica_DB_B</t>
+  </si>
+  <si>
+    <t>BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>Bei</t>
+  </si>
+  <si>
+    <t>Meryl</t>
+  </si>
+  <si>
+    <t>Akai</t>
+  </si>
+  <si>
+    <t>Yuka</t>
+  </si>
+  <si>
+    <t>Kachujin</t>
+  </si>
+  <si>
+    <t>Medea</t>
   </si>
 </sst>
 </file>
@@ -481,11 +514,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56509D-F74A-447F-8636-B9573FE21FB4}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -532,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -552,28 +583,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.99</v>
+        <v>7.99</v>
       </c>
       <c r="G3">
-        <v>19000</v>
+        <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -581,16 +612,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -602,7 +633,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -610,28 +641,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>49.99</v>
+        <v>39.99</v>
       </c>
       <c r="G5">
-        <v>69000</v>
+        <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -639,22 +670,100 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>14.99</v>
+      </c>
+      <c r="G6">
+        <v>19000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
       </c>
       <c r="J6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>674</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>815</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>39.99</v>
+      </c>
+      <c r="G8">
+        <v>49000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>998</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFAEC0-11D7-478C-9070-19C8AC527274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E889B7-3EB9-4D67-A0E7-1C5CD29FD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
   <sheets>
-    <sheet name="Costume" sheetId="1" r:id="rId1"/>
+    <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,15 +39,9 @@
     <t>costumeId|String</t>
   </si>
   <si>
-    <t>power|Int</t>
-  </si>
-  <si>
     <t>prefabAddress|String</t>
   </si>
   <si>
-    <t>portraitAddress|String</t>
-  </si>
-  <si>
     <t>condition|Bool</t>
   </si>
   <si>
@@ -75,21 +69,12 @@
     <t>EarthMage</t>
   </si>
   <si>
-    <t>Cash_sCostu02</t>
-  </si>
-  <si>
     <t>Costu03</t>
   </si>
   <si>
-    <t>Cash_sCostu03</t>
-  </si>
-  <si>
     <t>Costu04</t>
   </si>
   <si>
-    <t>Cash_sCostu04</t>
-  </si>
-  <si>
     <t>Costu05</t>
   </si>
   <si>
@@ -108,9 +93,6 @@
     <t>Portrait_P06_Mei</t>
   </si>
   <si>
-    <t>Cash_sCostu05</t>
-  </si>
-  <si>
     <t>Costu06</t>
   </si>
   <si>
@@ -123,9 +105,6 @@
     <t>Portrait_P08_Federica_DB_A</t>
   </si>
   <si>
-    <t>Cash_sCostu07</t>
-  </si>
-  <si>
     <t>Costu08</t>
   </si>
   <si>
@@ -151,6 +130,27 @@
   </si>
   <si>
     <t>Medea</t>
+  </si>
+  <si>
+    <t>atk|Int</t>
+  </si>
+  <si>
+    <t>spriteName|String</t>
+  </si>
+  <si>
+    <t>Costume_Costu02</t>
+  </si>
+  <si>
+    <t>Costume_Costu03</t>
+  </si>
+  <si>
+    <t>Costume_Costu04</t>
+  </si>
+  <si>
+    <t>Costume_Costu05</t>
+  </si>
+  <si>
+    <t>Costume_Costu07</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
@@ -531,45 +532,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -583,16 +584,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -604,7 +605,7 @@
         <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -612,16 +613,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -633,7 +634,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -641,16 +642,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -662,7 +663,7 @@
         <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -670,16 +671,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -691,7 +692,7 @@
         <v>19000</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -699,16 +700,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>674</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -719,16 +720,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>815</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -740,7 +741,7 @@
         <v>49000</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -748,16 +749,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>998</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E889B7-3EB9-4D67-A0E7-1C5CD29FD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16640D56-97D9-4E39-92FD-96927E34DD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>costumeId|String</t>
   </si>
@@ -60,24 +60,9 @@
     <t>orderIndex|Int</t>
   </si>
   <si>
-    <t>Costu01</t>
-  </si>
-  <si>
-    <t>Costu02</t>
-  </si>
-  <si>
     <t>EarthMage</t>
   </si>
   <si>
-    <t>Costu03</t>
-  </si>
-  <si>
-    <t>Costu04</t>
-  </si>
-  <si>
-    <t>Costu05</t>
-  </si>
-  <si>
     <t>Portrait_P03_Tenebro_DB_A3</t>
   </si>
   <si>
@@ -93,21 +78,12 @@
     <t>Portrait_P06_Mei</t>
   </si>
   <si>
-    <t>Costu06</t>
-  </si>
-  <si>
     <t>Portrait_P06_Pai</t>
   </si>
   <si>
-    <t>Costu07</t>
-  </si>
-  <si>
     <t>Portrait_P08_Federica_DB_A</t>
   </si>
   <si>
-    <t>Costu08</t>
-  </si>
-  <si>
     <t>Portrait_P08_Federica_DB_B</t>
   </si>
   <si>
@@ -151,6 +127,15 @@
   </si>
   <si>
     <t>Costume_Costu07</t>
+  </si>
+  <si>
+    <t>Costume_Costu06</t>
+  </si>
+  <si>
+    <t>Costume_Costu08</t>
+  </si>
+  <si>
+    <t>Costume_Costu01</t>
   </si>
 </sst>
 </file>
@@ -516,10 +501,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56509D-F74A-447F-8636-B9573FE21FB4}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
@@ -532,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -561,16 +549,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -584,16 +572,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -605,7 +593,7 @@
         <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -613,16 +601,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -634,7 +622,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -642,16 +630,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -663,7 +651,7 @@
         <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -671,16 +659,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -692,7 +680,7 @@
         <v>19000</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -700,16 +688,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>674</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -720,16 +708,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>815</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -741,7 +729,7 @@
         <v>49000</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -749,16 +737,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>998</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16640D56-97D9-4E39-92FD-96927E34DD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA186A1-D9CC-46CA-8B2C-9F9EDFDF23E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>costumeId|String</t>
   </si>
@@ -114,28 +114,43 @@
     <t>spriteName|String</t>
   </si>
   <si>
-    <t>Costume_Costu02</t>
-  </si>
-  <si>
-    <t>Costume_Costu03</t>
-  </si>
-  <si>
-    <t>Costume_Costu04</t>
-  </si>
-  <si>
-    <t>Costume_Costu05</t>
-  </si>
-  <si>
-    <t>Costume_Costu07</t>
-  </si>
-  <si>
-    <t>Costume_Costu06</t>
-  </si>
-  <si>
-    <t>Costume_Costu08</t>
-  </si>
-  <si>
-    <t>Costume_Costu01</t>
+    <t>Costume_01</t>
+  </si>
+  <si>
+    <t>Costume_02</t>
+  </si>
+  <si>
+    <t>costume_02</t>
+  </si>
+  <si>
+    <t>Costume_03</t>
+  </si>
+  <si>
+    <t>costume_03</t>
+  </si>
+  <si>
+    <t>Costume_04</t>
+  </si>
+  <si>
+    <t>costume_04</t>
+  </si>
+  <si>
+    <t>Costume_05</t>
+  </si>
+  <si>
+    <t>costume_05</t>
+  </si>
+  <si>
+    <t>Costume_06</t>
+  </si>
+  <si>
+    <t>Costume_07</t>
+  </si>
+  <si>
+    <t>costume_07</t>
+  </si>
+  <si>
+    <t>Costume_08</t>
   </si>
 </sst>
 </file>
@@ -501,9 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56509D-F74A-447F-8636-B9573FE21FB4}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -549,7 +562,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -572,7 +585,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>257</v>
@@ -593,7 +606,7 @@
         <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -601,7 +614,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>358</v>
@@ -622,7 +635,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -630,7 +643,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>485</v>
@@ -651,7 +664,7 @@
         <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -659,7 +672,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>541</v>
@@ -680,7 +693,7 @@
         <v>19000</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -688,7 +701,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>674</v>
@@ -708,7 +721,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>815</v>
@@ -729,7 +742,7 @@
         <v>49000</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -737,7 +750,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>998</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA186A1-D9CC-46CA-8B2C-9F9EDFDF23E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37B5CA-D789-469D-AF68-2CC3F14E19B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>costumeId|String</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Costume_08</t>
+  </si>
+  <si>
+    <t>Costume_00</t>
   </si>
 </sst>
 </file>
@@ -514,9 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56509D-F74A-447F-8636-B9573FE21FB4}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -562,209 +567,226 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1000000</v>
-      </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>7.99</v>
-      </c>
-      <c r="G3">
-        <v>9900</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
+      <c r="I3">
+        <v>990000</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.99</v>
+        <v>7.99</v>
       </c>
       <c r="G4">
-        <v>39000</v>
+        <v>9900</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="G5">
-        <v>49000</v>
+        <v>39000</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.99</v>
+        <v>39.99</v>
       </c>
       <c r="G6">
-        <v>19000</v>
+        <v>49000</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>674</v>
+        <v>541</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>14.99</v>
+      </c>
+      <c r="G7">
+        <v>19000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>815</v>
+        <v>674</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>39.99</v>
-      </c>
-      <c r="G8">
-        <v>49000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>815</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>39.99</v>
+      </c>
+      <c r="G9">
+        <v>49000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>998</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>8</v>
       </c>
     </row>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37B5CA-D789-469D-AF68-2CC3F14E19B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7A444-94C6-461B-A3C8-893DDB4018EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>costumeId|String</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Costume_00</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_B</t>
   </si>
 </sst>
 </file>
@@ -519,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56509D-F74A-447F-8636-B9573FE21FB4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -573,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7A444-94C6-461B-A3C8-893DDB4018EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F713F4DD-8EF8-4F7D-A002-E0910011F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>orderIndex|Int</t>
   </si>
   <si>
-    <t>EarthMage</t>
-  </si>
-  <si>
     <t>Portrait_P03_Tenebro_DB_A3</t>
   </si>
   <si>
@@ -87,27 +84,6 @@
     <t>Portrait_P08_Federica_DB_B</t>
   </si>
   <si>
-    <t>BigBatSuccubus</t>
-  </si>
-  <si>
-    <t>Bei</t>
-  </si>
-  <si>
-    <t>Meryl</t>
-  </si>
-  <si>
-    <t>Akai</t>
-  </si>
-  <si>
-    <t>Yuka</t>
-  </si>
-  <si>
-    <t>Kachujin</t>
-  </si>
-  <si>
-    <t>Medea</t>
-  </si>
-  <si>
     <t>atk|Int</t>
   </si>
   <si>
@@ -157,6 +133,30 @@
   </si>
   <si>
     <t>Portrait_P03_Tenebro_DB_B</t>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_A3</t>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_A1</t>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_C1</t>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_C2</t>
+  </si>
+  <si>
+    <t>P06_Mei</t>
+  </si>
+  <si>
+    <t>P06_Pai</t>
+  </si>
+  <si>
+    <t>P08_Federica_DB_A</t>
+  </si>
+  <si>
+    <t>P08_Federica_DB_B</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56509D-F74A-447F-8636-B9573FE21FB4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -539,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -568,13 +570,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -585,16 +587,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -608,16 +610,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -629,7 +631,7 @@
         <v>9900</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -637,16 +639,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -658,7 +660,7 @@
         <v>39000</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -666,16 +668,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -687,7 +689,7 @@
         <v>49000</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -695,16 +697,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>541</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>19000</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -724,16 +726,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>674</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -744,16 +746,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>815</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -765,7 +767,7 @@
         <v>49000</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -773,16 +775,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>998</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F713F4DD-8EF8-4F7D-A002-E0910011F271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AD39C-0067-4994-9413-F7333AD607F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7.99</v>
+        <v>6.99</v>
       </c>
       <c r="G4">
         <v>9900</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G5">
-        <v>39000</v>
+        <v>30000</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="G6">
-        <v>49000</v>
+        <v>45000</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.99</v>
+        <v>11.99</v>
       </c>
       <c r="G7">
         <v>19000</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="G9">
-        <v>49000</v>
+        <v>45000</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159AD39C-0067-4994-9413-F7333AD607F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9FAE5-E1A4-4634-A17B-9F08D122E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G5">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -686,7 +686,7 @@
         <v>29.99</v>
       </c>
       <c r="G6">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11.99</v>
+        <v>12.99</v>
       </c>
       <c r="G7">
         <v>19000</v>
@@ -764,7 +764,7 @@
         <v>29.99</v>
       </c>
       <c r="G9">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B9FAE5-E1A4-4634-A17B-9F08D122E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0333805-AED2-4521-84B4-29CA87280610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -590,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -613,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>257</v>
+        <v>799</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -642,7 +642,7 @@
         <v>21</v>
       </c>
       <c r="B5">
-        <v>358</v>
+        <v>929</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -671,7 +671,7 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>485</v>
+        <v>959</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -700,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>541</v>
+        <v>888</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -729,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>674</v>
+        <v>939</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -749,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>815</v>
+        <v>979</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -778,7 +778,7 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>

--- a/Excel/Costume.xlsx
+++ b/Excel/Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0333805-AED2-4521-84B4-29CA87280610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89502274-FFBF-4812-8319-CF1AFEF33F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{A5935A2F-5DC3-4BBE-BF38-7988FE626433}"/>
   </bookViews>
@@ -522,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C56509D-F74A-447F-8636-B9573FE21FB4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -625,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6.99</v>
+        <v>1.99</v>
       </c>
       <c r="G4">
-        <v>9900</v>
+        <v>3300</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
@@ -654,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="G5">
-        <v>29000</v>
+        <v>6600</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -683,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="G6">
-        <v>44000</v>
+        <v>14000</v>
       </c>
       <c r="H6" t="s">
         <v>24</v>
@@ -712,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12.99</v>
+        <v>3.99</v>
       </c>
       <c r="G7">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -761,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="G9">
-        <v>44000</v>
+        <v>29000</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
